--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:44:08+00:00</t>
+    <t>2025-10-28T09:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="203">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -626,6 +626,16 @@
   </si>
   <si>
     <t>Commentaire qui permet à la structure de donner des informations complémentaires.</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.entiteJuridique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EntiteJuridique
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EntiteJuridique.</t>
   </si>
 </sst>
 </file>
@@ -930,7 +940,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ50"/>
+  <dimension ref="A1:AJ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5958,6 +5968,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -628,14 +628,14 @@
     <t>Commentaire qui permet à la structure de donner des informations complémentaires.</t>
   </si>
   <si>
-    <t>EntiteGeographique.entiteJuridique</t>
+    <t>EntiteGeographique.EntiteJuridique</t>
   </si>
   <si>
     <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EntiteJuridique
 </t>
   </si>
   <si>
-    <t>Lien vers la classe EntiteJuridique.</t>
+    <t>Lien vers la classe EntiteJuridique</t>
   </si>
 </sst>
 </file>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="271">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -628,6 +628,26 @@
     <t>Commentaire qui permet à la structure de donner des informations complémentaires.</t>
   </si>
   <si>
+    <t>EntiteGeographique.SituationExercice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/SituationExercice
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe SituationExercice</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.Certificat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Certificat
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Certificat</t>
+  </si>
+  <si>
     <t>EntiteGeographique.EntiteJuridique</t>
   </si>
   <si>
@@ -636,6 +656,212 @@
   </si>
   <si>
     <t>Lien vers la classe EntiteJuridique</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.Lieu</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Lieu</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.Convention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Convention
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Convention</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.EquipementMaterielLourd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EquipementMaterielLourd
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EquipementMaterielLourd</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.LicenceExploitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/LicenceExploitation
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe LicenceExploitation</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.ActiviteEnseignement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ActiviteEnseignement
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ActiviteEnseignement</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.TarifPrestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/TarifPrestation
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe TarifPrestation</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.ActiviteSoinAutorisee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ActiviteSoinAutorisee
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ActiviteSoinAutorisee</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.AutreActiviteSoumiseAutorisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/AutreActiviteSoumiseAutorisation
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe AutreActiviteSoumiseAutorisation</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.ActiviteSoumiseReconnaissance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ActiviteSoumiseReconnaissance
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ActiviteSoumiseReconnaissance</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.ActiviteSociale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ActiviteSociale
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ActiviteSociale</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.CapaciteActiviteExercee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CapaciteActiviteExercee
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe CapaciteActiviteExercee</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.OffreOperationnelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/OffreOperationnelle
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe OffreOperationnelle</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.OrganisationInterne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/OrganisationInterne
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe OrganisationInterne</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.Emploi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Emploi
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Emploi</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.AidantDemarche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/AidantDemarche
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe AidantDemarche</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.MesureProtection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/MesureProtection
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe MesureProtection</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.NoteLiaison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/NoteLiaison
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe NoteLiaison</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.Agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Agenda
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Agenda</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.RendezVous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/RendezVous
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe RendezVous</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.CapaciteAccueil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CapaciteAccueil
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe CapaciteAccueil</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.CapaciteHabitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CapaciteHabitation
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe CapaciteHabitation</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ51"/>
+  <dimension ref="A1:AJ74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -959,7 +1185,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.36328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5981,10 +6207,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>71</v>
@@ -6056,15 +6282,2315 @@
         <v>200</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-EntiteGeographique.xlsx
+++ b/ML/ig/StructureDefinition-EntiteGeographique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
